--- a/GameDesign/Table/TurtleBomb_Adventure_Quest_Table.xlsx
+++ b/GameDesign/Table/TurtleBomb_Adventure_Quest_Table.xlsx
@@ -33,10 +33,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>design</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>int32</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -61,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Stage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Quest_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,6 +98,14 @@
   </si>
   <si>
     <t>int32</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -918,7 +918,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -936,59 +936,59 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="E1" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="10" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>3</v>
-      </c>
       <c r="F3" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.45">
@@ -1005,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4" s="18">
         <v>5</v>
@@ -1025,7 +1025,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" s="18">
         <v>5</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6" s="18">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7" s="19">
         <v>6</v>
@@ -1085,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" s="19">
         <v>7</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F9" s="19">
         <v>0</v>
@@ -1125,7 +1125,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F10" s="19">
         <v>8</v>
@@ -1145,7 +1145,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F11" s="19">
         <v>5</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F12" s="19">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -1185,7 +1185,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F13" s="19">
         <v>10</v>
@@ -1196,7 +1196,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2">
         <v>2</v>
@@ -1205,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F14" s="19">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2">
         <v>3</v>
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F15" s="19">
         <v>0</v>
@@ -1236,7 +1236,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -1245,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F16" s="19">
         <v>12</v>
@@ -1256,7 +1256,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
@@ -1265,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F17" s="19">
         <v>12</v>
@@ -1276,7 +1276,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C18" s="2">
         <v>3</v>
@@ -1285,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F18" s="19">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="23">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -1305,7 +1305,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F19" s="19">
         <v>15</v>
@@ -1316,7 +1316,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="23">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
@@ -1325,7 +1325,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F20" s="19">
         <v>10</v>
@@ -1336,7 +1336,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="23">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C21" s="2">
         <v>4</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F21" s="19">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="23">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -1365,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F22" s="19">
         <v>20</v>
@@ -1376,7 +1376,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="23">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C23" s="2">
         <v>2</v>
@@ -1385,7 +1385,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F23" s="19">
         <v>15</v>
@@ -1396,7 +1396,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="23">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C24" s="2">
         <v>3</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F24" s="19">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="23">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -1425,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F25" s="19">
         <v>25</v>
@@ -1436,7 +1436,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="23">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C26" s="2">
         <v>2</v>
@@ -1445,7 +1445,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F26" s="19">
         <v>20</v>
@@ -1456,7 +1456,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="23">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C27" s="2">
         <v>3</v>
@@ -1465,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F27" s="19">
         <v>0</v>
@@ -1476,16 +1476,16 @@
         <v>25</v>
       </c>
       <c r="B28" s="23">
+        <v>17</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>9</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>11</v>
       </c>
       <c r="F28" s="19">
         <v>30</v>
@@ -1496,7 +1496,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="23">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C29" s="2">
         <v>2</v>
@@ -1505,7 +1505,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F29" s="19">
         <v>15</v>
@@ -1516,7 +1516,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="29">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C30" s="30">
         <v>4</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F30" s="32">
         <v>0</v>

--- a/GameDesign/Table/TurtleBomb_Adventure_Quest_Table.xlsx
+++ b/GameDesign/Table/TurtleBomb_Adventure_Quest_Table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\송형종\Documents\GitHub\Turtle_Bomb\GameDesign\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Turtle_Bomb\GameDesign\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -704,7 +704,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1010,7 +1010,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30" s="2">
         <v>0</v>

--- a/GameDesign/Table/TurtleBomb_Adventure_Quest_Table.xlsx
+++ b/GameDesign/Table/TurtleBomb_Adventure_Quest_Table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Turtle_Bomb\GameDesign\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\송형종\Documents\GitHub\Turtle_Bomb\GameDesign\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -95,6 +95,10 @@
   <si>
     <t>Queset_Goal</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜토리얼 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -142,7 +146,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +189,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -218,7 +228,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -259,6 +269,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -266,7 +285,49 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 3" xfId="1"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -698,13 +759,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1226,83 +1287,122 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="14">
+        <v>28</v>
+      </c>
+      <c r="B31" s="14">
+        <v>3</v>
+      </c>
+      <c r="C31" s="14">
+        <v>0</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="16">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D4:D15 D19:D21">
-    <cfRule type="containsText" dxfId="20" priority="9019" operator="containsText" text="left">
+    <cfRule type="containsText" dxfId="26" priority="9025" operator="containsText" text="left">
       <formula>NOT(ISERROR(SEARCH("left",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="9020" operator="containsText" text="Right">
+    <cfRule type="containsText" dxfId="25" priority="9026" operator="containsText" text="Right">
       <formula>NOT(ISERROR(SEARCH("Right",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="9021" operator="containsText" text="forward">
+    <cfRule type="containsText" dxfId="24" priority="9027" operator="containsText" text="forward">
       <formula>NOT(ISERROR(SEARCH("forward",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E15 E19:E28">
-    <cfRule type="containsText" dxfId="17" priority="8905" operator="containsText" text="left">
+    <cfRule type="containsText" dxfId="23" priority="8911" operator="containsText" text="left">
       <formula>NOT(ISERROR(SEARCH("left",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="8906" operator="containsText" text="Right">
+    <cfRule type="containsText" dxfId="22" priority="8912" operator="containsText" text="Right">
       <formula>NOT(ISERROR(SEARCH("Right",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="8907" operator="containsText" text="forward">
+    <cfRule type="containsText" dxfId="21" priority="8913" operator="containsText" text="forward">
       <formula>NOT(ISERROR(SEARCH("forward",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:E30">
-    <cfRule type="containsText" dxfId="14" priority="19" operator="containsText" text="left">
+    <cfRule type="containsText" dxfId="20" priority="25" operator="containsText" text="left">
       <formula>NOT(ISERROR(SEARCH("left",E29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="20" operator="containsText" text="Right">
+    <cfRule type="containsText" dxfId="19" priority="26" operator="containsText" text="Right">
       <formula>NOT(ISERROR(SEARCH("Right",E29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="forward">
+    <cfRule type="containsText" dxfId="18" priority="27" operator="containsText" text="forward">
       <formula>NOT(ISERROR(SEARCH("forward",E29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D30">
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="left">
+    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="left">
       <formula>NOT(ISERROR(SEARCH("left",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Right">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Right">
       <formula>NOT(ISERROR(SEARCH("Right",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="forward">
+    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="forward">
       <formula>NOT(ISERROR(SEARCH("forward",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="left">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="left">
       <formula>NOT(ISERROR(SEARCH("left",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Right">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Right">
       <formula>NOT(ISERROR(SEARCH("Right",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="forward">
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="forward">
       <formula>NOT(ISERROR(SEARCH("forward",E16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E18">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="left">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="left">
       <formula>NOT(ISERROR(SEARCH("left",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Right">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Right">
       <formula>NOT(ISERROR(SEARCH("Right",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="forward">
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="forward">
       <formula>NOT(ISERROR(SEARCH("forward",E17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D18">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="left">
+      <formula>NOT(ISERROR(SEARCH("left",D16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Right">
+      <formula>NOT(ISERROR(SEARCH("Right",D16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="forward">
+      <formula>NOT(ISERROR(SEARCH("forward",D16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="left">
+      <formula>NOT(ISERROR(SEARCH("left",E31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Right">
+      <formula>NOT(ISERROR(SEARCH("Right",E31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="forward">
+      <formula>NOT(ISERROR(SEARCH("forward",E31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="left">
-      <formula>NOT(ISERROR(SEARCH("left",D16)))</formula>
+      <formula>NOT(ISERROR(SEARCH("left",D31)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Right">
-      <formula>NOT(ISERROR(SEARCH("Right",D16)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Right",D31)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="forward">
-      <formula>NOT(ISERROR(SEARCH("forward",D16)))</formula>
+      <formula>NOT(ISERROR(SEARCH("forward",D31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameDesign/Table/TurtleBomb_Adventure_Quest_Table.xlsx
+++ b/GameDesign/Table/TurtleBomb_Adventure_Quest_Table.xlsx
@@ -196,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -219,6 +219,152 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -228,7 +374,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -265,19 +411,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -761,16 +943,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.875" customWidth="1"/>
@@ -811,42 +993,42 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:5" s="5" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="A4" s="16">
+        <v>1</v>
+      </c>
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17">
+        <v>1</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="19">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="20">
         <v>2</v>
       </c>
       <c r="B5" s="2">
@@ -858,46 +1040,46 @@
       <c r="D5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="E5" s="21">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
+    </row>
+    <row r="6" spans="1:5" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="22">
         <v>3</v>
       </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="B6" s="23">
+        <v>3</v>
+      </c>
+      <c r="C6" s="23">
+        <v>0</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="16">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="B7" s="17">
+        <v>1</v>
+      </c>
+      <c r="C7" s="17">
+        <v>1</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="20">
         <v>5</v>
       </c>
       <c r="B8" s="2">
@@ -909,46 +1091,46 @@
       <c r="D8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="22">
+        <v>6</v>
+      </c>
+      <c r="B9" s="23">
+        <v>3</v>
+      </c>
+      <c r="C9" s="23">
+        <v>0</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="B10" s="17">
+        <v>1</v>
+      </c>
+      <c r="C10" s="17">
+        <v>1</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="19">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="20">
         <v>8</v>
       </c>
       <c r="B11" s="2">
@@ -960,46 +1142,46 @@
       <c r="D11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="E11" s="21">
         <v>9</v>
       </c>
-      <c r="B12" s="2">
+    </row>
+    <row r="12" spans="1:5" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="22">
+        <v>9</v>
+      </c>
+      <c r="B12" s="23">
         <v>3</v>
       </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="23">
+        <v>0</v>
+      </c>
+      <c r="D12" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="16">
         <v>10</v>
       </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="B13" s="17">
+        <v>1</v>
+      </c>
+      <c r="C13" s="17">
+        <v>1</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="19">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="20">
         <v>11</v>
       </c>
       <c r="B14" s="2">
@@ -1011,46 +1193,46 @@
       <c r="D14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="21">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+    <row r="15" spans="1:5" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="22">
         <v>12</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="23">
         <v>3</v>
       </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="23">
+        <v>0</v>
+      </c>
+      <c r="D15" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="16">
         <v>13</v>
       </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="B16" s="17">
+        <v>1</v>
+      </c>
+      <c r="C16" s="17">
+        <v>1</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="19">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="20">
         <v>14</v>
       </c>
       <c r="B17" s="2">
@@ -1062,46 +1244,46 @@
       <c r="D17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="22">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="B18" s="23">
+        <v>4</v>
+      </c>
+      <c r="C18" s="23">
+        <v>0</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
+        <v>16</v>
+      </c>
+      <c r="B19" s="17">
+        <v>1</v>
+      </c>
+      <c r="C19" s="17">
+        <v>1</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="19">
         <v>15</v>
       </c>
-      <c r="B18" s="2">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="12">
-        <v>15</v>
-      </c>
     </row>
     <row r="20" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="20">
         <v>17</v>
       </c>
       <c r="B20" s="2">
@@ -1113,46 +1295,46 @@
       <c r="D20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="22">
+        <v>18</v>
+      </c>
+      <c r="B21" s="23">
+        <v>3</v>
+      </c>
+      <c r="C21" s="23">
+        <v>0</v>
+      </c>
+      <c r="D21" s="24" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>18</v>
-      </c>
-      <c r="B21" s="2">
-        <v>3</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="12">
+      <c r="E21" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="16">
         <v>19</v>
       </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="B22" s="17">
+        <v>1</v>
+      </c>
+      <c r="C22" s="17">
+        <v>1</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="19">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="20">
         <v>20</v>
       </c>
       <c r="B23" s="2">
@@ -1164,46 +1346,46 @@
       <c r="D23" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="E23" s="21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="22">
         <v>21</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="23">
         <v>3</v>
       </c>
-      <c r="C24" s="2">
-        <v>0</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="C24" s="23">
+        <v>0</v>
+      </c>
+      <c r="D24" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="16">
         <v>22</v>
       </c>
-      <c r="B25" s="2">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1</v>
-      </c>
-      <c r="D25" s="11" t="s">
+      <c r="B25" s="17">
+        <v>1</v>
+      </c>
+      <c r="C25" s="17">
+        <v>1</v>
+      </c>
+      <c r="D25" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="19">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="20">
         <v>23</v>
       </c>
       <c r="B26" s="2">
@@ -1215,46 +1397,46 @@
       <c r="D26" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="E26" s="21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="22">
         <v>24</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="23">
         <v>3</v>
       </c>
-      <c r="C27" s="2">
-        <v>0</v>
-      </c>
-      <c r="D27" s="11" t="s">
+      <c r="C27" s="23">
+        <v>0</v>
+      </c>
+      <c r="D27" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="16">
         <v>25</v>
       </c>
-      <c r="B28" s="2">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-      <c r="D28" s="11" t="s">
+      <c r="B28" s="17">
+        <v>1</v>
+      </c>
+      <c r="C28" s="17">
+        <v>1</v>
+      </c>
+      <c r="D28" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="19">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="20">
         <v>26</v>
       </c>
       <c r="B29" s="2">
@@ -1266,41 +1448,41 @@
       <c r="D29" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="E29" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="22">
         <v>27</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="23">
         <v>4</v>
       </c>
-      <c r="C30" s="2">
-        <v>0</v>
-      </c>
-      <c r="D30" s="11" t="s">
+      <c r="C30" s="23">
+        <v>0</v>
+      </c>
+      <c r="D30" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="14">
+      <c r="A31" s="26">
         <v>28</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="26">
         <v>3</v>
       </c>
-      <c r="C31" s="14">
-        <v>0</v>
-      </c>
-      <c r="D31" s="15" t="s">
+      <c r="C31" s="26">
+        <v>0</v>
+      </c>
+      <c r="D31" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="28">
         <v>0</v>
       </c>
     </row>

--- a/GameDesign/Table/TurtleBomb_Adventure_Quest_Table.xlsx
+++ b/GameDesign/Table/TurtleBomb_Adventure_Quest_Table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9105" tabRatio="653"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" tabRatio="653"/>
   </bookViews>
   <sheets>
     <sheet name="Quest_Table" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="18">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -374,7 +374,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -461,13 +461,247 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 3" xfId="1"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="60">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -941,25 +1175,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="6.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.875" customWidth="1"/>
-    <col min="5" max="5" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.8984375" customWidth="1"/>
+    <col min="5" max="5" width="14.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -976,7 +1210,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -993,7 +1227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="5" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
@@ -1010,7 +1244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -1027,7 +1261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="20">
         <v>2</v>
       </c>
@@ -1044,7 +1278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="6" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="22">
         <v>3</v>
       </c>
@@ -1061,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="16">
         <v>4</v>
       </c>
@@ -1078,7 +1312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="20">
         <v>5</v>
       </c>
@@ -1095,7 +1329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="6" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="22">
         <v>6</v>
       </c>
@@ -1112,7 +1346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="16">
         <v>7</v>
       </c>
@@ -1129,7 +1363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="20">
         <v>8</v>
       </c>
@@ -1146,7 +1380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" s="6" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="22">
         <v>9</v>
       </c>
@@ -1163,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="16">
         <v>10</v>
       </c>
@@ -1180,7 +1414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="20">
         <v>11</v>
       </c>
@@ -1197,7 +1431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" s="6" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="22">
         <v>12</v>
       </c>
@@ -1214,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="16">
         <v>13</v>
       </c>
@@ -1231,7 +1465,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="20">
         <v>14</v>
       </c>
@@ -1248,7 +1482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" s="6" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="22">
         <v>15</v>
       </c>
@@ -1265,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="16">
         <v>16</v>
       </c>
@@ -1282,7 +1516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="20">
         <v>17</v>
       </c>
@@ -1299,7 +1533,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" s="6" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="22">
         <v>18</v>
       </c>
@@ -1316,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="16">
         <v>19</v>
       </c>
@@ -1333,7 +1567,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="20">
         <v>20</v>
       </c>
@@ -1350,7 +1584,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" s="6" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="22">
         <v>21</v>
       </c>
@@ -1367,7 +1601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="16">
         <v>22</v>
       </c>
@@ -1384,7 +1618,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20">
         <v>23</v>
       </c>
@@ -1401,7 +1635,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" s="6" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="22">
         <v>24</v>
       </c>
@@ -1418,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="16">
         <v>25</v>
       </c>
@@ -1435,7 +1669,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="20">
         <v>26</v>
       </c>
@@ -1452,7 +1686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" s="6" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="22">
         <v>27</v>
       </c>
@@ -1469,7 +1703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="26">
         <v>28</v>
       </c>
@@ -1483,108 +1717,736 @@
         <v>17</v>
       </c>
       <c r="E31" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="16">
+        <v>29</v>
+      </c>
+      <c r="B32" s="17">
+        <v>1</v>
+      </c>
+      <c r="C32" s="17">
+        <v>1</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="19">
+        <v>5</v>
+      </c>
+      <c r="F32" s="29"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="20">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="22">
+        <v>31</v>
+      </c>
+      <c r="B34" s="23">
+        <v>3</v>
+      </c>
+      <c r="C34" s="23">
+        <v>0</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="16">
+        <v>32</v>
+      </c>
+      <c r="B35" s="17">
+        <v>1</v>
+      </c>
+      <c r="C35" s="17">
+        <v>1</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="19">
+        <v>6</v>
+      </c>
+      <c r="F35" s="29"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="20">
+        <v>33</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="22">
+        <v>34</v>
+      </c>
+      <c r="B37" s="23">
+        <v>3</v>
+      </c>
+      <c r="C37" s="23">
+        <v>0</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="16">
+        <v>35</v>
+      </c>
+      <c r="B38" s="17">
+        <v>1</v>
+      </c>
+      <c r="C38" s="17">
+        <v>1</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="19">
+        <v>8</v>
+      </c>
+      <c r="F38" s="29"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" s="20">
+        <v>36</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="22">
+        <v>37</v>
+      </c>
+      <c r="B40" s="23">
+        <v>3</v>
+      </c>
+      <c r="C40" s="23">
+        <v>0</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" s="16">
+        <v>38</v>
+      </c>
+      <c r="B41" s="17">
+        <v>1</v>
+      </c>
+      <c r="C41" s="17">
+        <v>1</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="19">
+        <v>10</v>
+      </c>
+      <c r="F41" s="29"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" s="20">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2">
+        <v>2</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="22">
+        <v>40</v>
+      </c>
+      <c r="B43" s="23">
+        <v>3</v>
+      </c>
+      <c r="C43" s="23">
+        <v>0</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" s="16">
+        <v>41</v>
+      </c>
+      <c r="B44" s="17">
+        <v>1</v>
+      </c>
+      <c r="C44" s="17">
+        <v>1</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="19">
+        <v>30</v>
+      </c>
+      <c r="F44" s="29"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45" s="20">
+        <v>42</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="22">
+        <v>43</v>
+      </c>
+      <c r="B46" s="23">
+        <v>4</v>
+      </c>
+      <c r="C46" s="23">
+        <v>0</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" s="16">
+        <v>44</v>
+      </c>
+      <c r="B47" s="17">
+        <v>1</v>
+      </c>
+      <c r="C47" s="17">
+        <v>1</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="19">
+        <v>15</v>
+      </c>
+      <c r="F47" s="29"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48" s="20">
+        <v>45</v>
+      </c>
+      <c r="B48" s="2">
+        <v>2</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="22">
+        <v>46</v>
+      </c>
+      <c r="B49" s="23">
+        <v>3</v>
+      </c>
+      <c r="C49" s="23">
+        <v>0</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A50" s="16">
+        <v>47</v>
+      </c>
+      <c r="B50" s="17">
+        <v>1</v>
+      </c>
+      <c r="C50" s="17">
+        <v>1</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="19">
+        <v>20</v>
+      </c>
+      <c r="F50" s="29"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A51" s="20">
+        <v>48</v>
+      </c>
+      <c r="B51" s="2">
+        <v>2</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="22">
+        <v>49</v>
+      </c>
+      <c r="B52" s="23">
+        <v>3</v>
+      </c>
+      <c r="C52" s="23">
+        <v>0</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A53" s="16">
+        <v>50</v>
+      </c>
+      <c r="B53" s="17">
+        <v>1</v>
+      </c>
+      <c r="C53" s="17">
+        <v>1</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="19">
+        <v>25</v>
+      </c>
+      <c r="F53" s="29"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A54" s="20">
+        <v>51</v>
+      </c>
+      <c r="B54" s="2">
+        <v>2</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="22">
+        <v>52</v>
+      </c>
+      <c r="B55" s="23">
+        <v>3</v>
+      </c>
+      <c r="C55" s="23">
+        <v>0</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A56" s="16">
+        <v>53</v>
+      </c>
+      <c r="B56" s="17">
+        <v>1</v>
+      </c>
+      <c r="C56" s="17">
+        <v>1</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A57" s="20">
+        <v>54</v>
+      </c>
+      <c r="B57" s="2">
+        <v>2</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="22">
+        <v>55</v>
+      </c>
+      <c r="B58" s="23">
+        <v>4</v>
+      </c>
+      <c r="C58" s="23">
+        <v>0</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A59" s="16">
+        <v>56</v>
+      </c>
+      <c r="B59" s="17">
+        <v>1</v>
+      </c>
+      <c r="C59" s="17">
+        <v>1</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A60" s="20">
+        <v>57</v>
+      </c>
+      <c r="B60" s="2">
+        <v>2</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="22">
+        <v>58</v>
+      </c>
+      <c r="B61" s="23">
+        <v>4</v>
+      </c>
+      <c r="C61" s="23">
+        <v>0</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="25">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D4:D15 D19:D21">
-    <cfRule type="containsText" dxfId="26" priority="9025" operator="containsText" text="left">
+    <cfRule type="containsText" dxfId="59" priority="9058" operator="containsText" text="left">
       <formula>NOT(ISERROR(SEARCH("left",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="9026" operator="containsText" text="Right">
+    <cfRule type="containsText" dxfId="58" priority="9059" operator="containsText" text="Right">
       <formula>NOT(ISERROR(SEARCH("Right",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="9027" operator="containsText" text="forward">
+    <cfRule type="containsText" dxfId="57" priority="9060" operator="containsText" text="forward">
       <formula>NOT(ISERROR(SEARCH("forward",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E15 E19:E28">
-    <cfRule type="containsText" dxfId="23" priority="8911" operator="containsText" text="left">
+    <cfRule type="containsText" dxfId="56" priority="8944" operator="containsText" text="left">
       <formula>NOT(ISERROR(SEARCH("left",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="8912" operator="containsText" text="Right">
+    <cfRule type="containsText" dxfId="55" priority="8945" operator="containsText" text="Right">
       <formula>NOT(ISERROR(SEARCH("Right",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="8913" operator="containsText" text="forward">
+    <cfRule type="containsText" dxfId="54" priority="8946" operator="containsText" text="forward">
       <formula>NOT(ISERROR(SEARCH("forward",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:E30">
-    <cfRule type="containsText" dxfId="20" priority="25" operator="containsText" text="left">
+    <cfRule type="containsText" dxfId="53" priority="58" operator="containsText" text="left">
       <formula>NOT(ISERROR(SEARCH("left",E29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="26" operator="containsText" text="Right">
+    <cfRule type="containsText" dxfId="52" priority="59" operator="containsText" text="Right">
       <formula>NOT(ISERROR(SEARCH("Right",E29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="27" operator="containsText" text="forward">
+    <cfRule type="containsText" dxfId="51" priority="60" operator="containsText" text="forward">
       <formula>NOT(ISERROR(SEARCH("forward",E29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D30">
-    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="left">
+    <cfRule type="containsText" dxfId="50" priority="49" operator="containsText" text="left">
       <formula>NOT(ISERROR(SEARCH("left",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Right">
+    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="Right">
       <formula>NOT(ISERROR(SEARCH("Right",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="forward">
+    <cfRule type="containsText" dxfId="48" priority="51" operator="containsText" text="forward">
       <formula>NOT(ISERROR(SEARCH("forward",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="left">
+    <cfRule type="containsText" dxfId="47" priority="46" operator="containsText" text="left">
       <formula>NOT(ISERROR(SEARCH("left",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Right">
+    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="Right">
       <formula>NOT(ISERROR(SEARCH("Right",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="forward">
+    <cfRule type="containsText" dxfId="45" priority="48" operator="containsText" text="forward">
       <formula>NOT(ISERROR(SEARCH("forward",E16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E18">
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="left">
+    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="left">
       <formula>NOT(ISERROR(SEARCH("left",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Right">
+    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="Right">
       <formula>NOT(ISERROR(SEARCH("Right",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="forward">
+    <cfRule type="containsText" dxfId="42" priority="45" operator="containsText" text="forward">
       <formula>NOT(ISERROR(SEARCH("forward",E17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D18">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="left">
+    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="left">
       <formula>NOT(ISERROR(SEARCH("left",D16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Right">
+    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="Right">
       <formula>NOT(ISERROR(SEARCH("Right",D16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="forward">
+    <cfRule type="containsText" dxfId="39" priority="42" operator="containsText" text="forward">
       <formula>NOT(ISERROR(SEARCH("forward",D16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="left">
+    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="left">
       <formula>NOT(ISERROR(SEARCH("left",E31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Right">
+    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="Right">
       <formula>NOT(ISERROR(SEARCH("Right",E31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="forward">
+    <cfRule type="containsText" dxfId="36" priority="39" operator="containsText" text="forward">
       <formula>NOT(ISERROR(SEARCH("forward",E31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
+    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="left">
+      <formula>NOT(ISERROR(SEARCH("left",D31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="Right">
+      <formula>NOT(ISERROR(SEARCH("Right",D31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="forward">
+      <formula>NOT(ISERROR(SEARCH("forward",D31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D43 D47:D49">
+    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="left">
+      <formula>NOT(ISERROR(SEARCH("left",D32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="Right">
+      <formula>NOT(ISERROR(SEARCH("Right",D32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text="forward">
+      <formula>NOT(ISERROR(SEARCH("forward",D32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:E43 E47:E56">
+    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="left">
+      <formula>NOT(ISERROR(SEARCH("left",E32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="Right">
+      <formula>NOT(ISERROR(SEARCH("Right",E32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="forward">
+      <formula>NOT(ISERROR(SEARCH("forward",E32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:E58">
+    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="left">
+      <formula>NOT(ISERROR(SEARCH("left",E57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="Right">
+      <formula>NOT(ISERROR(SEARCH("Right",E57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="27" operator="containsText" text="forward">
+      <formula>NOT(ISERROR(SEARCH("forward",E57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D58">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="left">
+      <formula>NOT(ISERROR(SEARCH("left",D50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Right">
+      <formula>NOT(ISERROR(SEARCH("Right",D50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="forward">
+      <formula>NOT(ISERROR(SEARCH("forward",D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="left">
+      <formula>NOT(ISERROR(SEARCH("left",E44)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="Right">
+      <formula>NOT(ISERROR(SEARCH("Right",E44)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="forward">
+      <formula>NOT(ISERROR(SEARCH("forward",E44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45:E46">
+    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="left">
+      <formula>NOT(ISERROR(SEARCH("left",E45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Right">
+      <formula>NOT(ISERROR(SEARCH("Right",E45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="forward">
+      <formula>NOT(ISERROR(SEARCH("forward",E45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:D46">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="left">
+      <formula>NOT(ISERROR(SEARCH("left",D44)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Right">
+      <formula>NOT(ISERROR(SEARCH("Right",D44)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="forward">
+      <formula>NOT(ISERROR(SEARCH("forward",D44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="left">
+      <formula>NOT(ISERROR(SEARCH("left",E59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Right">
+      <formula>NOT(ISERROR(SEARCH("Right",E59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="forward">
+      <formula>NOT(ISERROR(SEARCH("forward",E59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:E61">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="left">
+      <formula>NOT(ISERROR(SEARCH("left",E60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Right">
+      <formula>NOT(ISERROR(SEARCH("Right",E60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="forward">
+      <formula>NOT(ISERROR(SEARCH("forward",E60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59:D61">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="left">
-      <formula>NOT(ISERROR(SEARCH("left",D31)))</formula>
+      <formula>NOT(ISERROR(SEARCH("left",D59)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Right">
-      <formula>NOT(ISERROR(SEARCH("Right",D31)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Right",D59)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="forward">
-      <formula>NOT(ISERROR(SEARCH("forward",D31)))</formula>
+      <formula>NOT(ISERROR(SEARCH("forward",D59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
